--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/ForgetPassword.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/ForgetPassword.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL_Auto_140920\HBLAutomationAndroid\Resources\Feature\HBLMobile\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL_Auto_Konnect_Initialization\HBLAutomationAndroid\Resources\Feature\HBLMobile\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="59">
   <si>
     <t>Case</t>
   </si>
@@ -53,24 +53,9 @@
     <t>Status_Query</t>
   </si>
   <si>
-    <t>When I am verifying Forget Password for Debit Type Customer</t>
-  </si>
-  <si>
-    <t>When I am verifying Forget Password for Credit Type Customer</t>
-  </si>
-  <si>
-    <t>3640211897773</t>
-  </si>
-  <si>
-    <t>4028052000002718</t>
-  </si>
-  <si>
     <t>card_number</t>
   </si>
   <si>
-    <t>MOJIZABIDI99</t>
-  </si>
-  <si>
     <t>login_id_value</t>
   </si>
   <si>
@@ -86,9 +71,6 @@
     <t>Forget_Password_NewPass_Value</t>
   </si>
   <si>
-    <t>MOJIZABIDI98</t>
-  </si>
-  <si>
     <t>success_message</t>
   </si>
   <si>
@@ -129,13 +111,103 @@
   </si>
   <si>
     <t>farooq.leo@hotmail.com</t>
+  </si>
+  <si>
+    <t>To Verify that D-type customer can successfully perform Forgot Login Pasword</t>
+  </si>
+  <si>
+    <t>AUTOMATIONUSER</t>
+  </si>
+  <si>
+    <t>1210118382897</t>
+  </si>
+  <si>
+    <t>4028052000002445</t>
+  </si>
+  <si>
+    <t>To verify that D-type customer can not perform Forgot Login Password with incorrect Login ID</t>
+  </si>
+  <si>
+    <t>RYANDIAS</t>
+  </si>
+  <si>
+    <t>To verify that D-type customer can not perform Forgot Login ID with incorrect CNIC</t>
+  </si>
+  <si>
+    <t>4220135775077</t>
+  </si>
+  <si>
+    <t>To verify that D-type customer can not perform Forgot Login ID with incorrect Debit Card Number</t>
+  </si>
+  <si>
+    <t>4028057778002445</t>
+  </si>
+  <si>
+    <t>To Verify that D-type Locked customer can successfully perform Forgot Login Pasword</t>
+  </si>
+  <si>
+    <t>4200028347788</t>
+  </si>
+  <si>
+    <t>5366190000137766</t>
+  </si>
+  <si>
+    <t>To Verify that D-type Blocked customer can not perform Forgot Login Pasword</t>
+  </si>
+  <si>
+    <t>To Verify that D-type Partial Activated customer can not perform Forgot Login Pasword</t>
+  </si>
+  <si>
+    <t>To Verify that C-type customer can successfully perform Forgot Login Pasword</t>
+  </si>
+  <si>
+    <t>CTYPE123</t>
+  </si>
+  <si>
+    <t>To verify that C-type customer can not perform Forgot Login Password with incorrect Login ID</t>
+  </si>
+  <si>
+    <t>ANYBODY123</t>
+  </si>
+  <si>
+    <t>To verify that C-type customer can not perform Forgot Login ID with incorrect CNIC</t>
+  </si>
+  <si>
+    <t>To verify that C-type customer can not perform Forgot Login ID with incorrect Credit Card Number</t>
+  </si>
+  <si>
+    <t>4902874454884109</t>
+  </si>
+  <si>
+    <t>To Verify that C-type customer can not successfully perform Forgot Login Pasword with incorrect Email Address</t>
+  </si>
+  <si>
+    <t>To Verify that C-type Locked customer can successfully perform Forgot Login Pasword</t>
+  </si>
+  <si>
+    <t>3310034133615</t>
+  </si>
+  <si>
+    <t>5428317034994765 </t>
+  </si>
+  <si>
+    <t>To Verify that C-type Blocked customer can not perform Forgot Login Pasword</t>
+  </si>
+  <si>
+    <t>To Verify that C-type Partial Activated customer can not perform Forgot Login Pasword</t>
+  </si>
+  <si>
+    <t>shoaib.qureshi@hotmail.com</t>
+  </si>
+  <si>
+    <t>FAAILTHEONE@GMAIL.COM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +220,14 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,16 +247,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -455,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +564,7 @@
     <col min="10" max="12" width="22.42578125" style="1" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="14.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="93.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="130.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -487,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -496,135 +585,748 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="G7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="G8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>25</v>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="G15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="G16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H13" r:id="rId1"/>
+    <hyperlink ref="H14" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>